--- a/CrisisCare.Sandbox/WebFormSandBox/TestDiffAnalysis/Code/TestData/TestCompare.xlsx
+++ b/CrisisCare.Sandbox/WebFormSandBox/TestDiffAnalysis/Code/TestData/TestCompare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\source\repos\NubyTouch\CCSandBox\CrisisCare.Sandbox\WebFormSandBox\TestDiffAnalysis\Code\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB675D-31F4-4E9E-91C0-A26FABE661E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21F281-C8BC-4C1F-BA1D-A04AC21BA4FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4C67BC7E-86A3-45C2-8AF0-B679A4772515}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,16 +147,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="RowLevelOneDataEvenStyle" xfId="1" xr:uid="{5FE98833-875E-4F8F-8659-E3810B5305B5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>

--- a/CrisisCare.Sandbox/WebFormSandBox/TestDiffAnalysis/Code/TestData/TestCompare.xlsx
+++ b/CrisisCare.Sandbox/WebFormSandBox/TestDiffAnalysis/Code/TestData/TestCompare.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\source\repos\NubyTouch\CCSandBox\CrisisCare.Sandbox\WebFormSandBox\TestDiffAnalysis\Code\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21F281-C8BC-4C1F-BA1D-A04AC21BA4FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB5E09C-6EE4-4D7F-B0F9-20F89D496625}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4C67BC7E-86A3-45C2-8AF0-B679A4772515}"/>
   </bookViews>
   <sheets>
-    <sheet name="RefSheet" sheetId="3" r:id="rId1"/>
-    <sheet name="NewItemsSheet" sheetId="4" r:id="rId2"/>
+    <sheet name="Reference" sheetId="3" r:id="rId1"/>
+    <sheet name="NewItems" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
